--- a/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造05.xlsx
+++ b/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造05.xlsx
@@ -19,124 +19,390 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>u32</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>0xdb で埋める</t>
     <rPh sb="6" eb="7">
       <t>ウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（16バイトアラインメントパディング）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>並べ替えインデックス種数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>u32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算式データ数</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算式データ[n]</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T_EXPR[n]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※T_EXPRは可変長データ</t>
+    <rPh sb="8" eb="11">
+      <t>カヘンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※計算式データ数分続く…</t>
+    <rPh sb="1" eb="4">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算式参照データ[n]</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算式の実データ位置のオフセット　※計算式データ部のトップからのオフセット</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データはCRC値順に並び、バイナリサーチ可能な状態</t>
+    <rPh sb="7" eb="8">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>u8[]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列CRC値</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実データオフセット</t>
     <rPh sb="0" eb="1">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（T_EXPR型の構造については別途記述）</t>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(4 + ?)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算式文字列のCRC値　※検索／重複定義検出用</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モジレツ</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>並べ替えインデックス情報[n]</t>
-    <rPh sb="0" eb="1">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
+      <t>チ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ケンシュツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算式データサイズ</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　メモリ使用量削減のためにも、この情報は最後に削除する。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赤く着色した部分は検索用情報。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全ての計算式データを収集して、計算式データ部の内容が確定した後は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不要。</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チャクショク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケンサクヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ノチ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　同じ内容のデータを二重定義せずに共通利用するためのものであるため、ランタイム時には使用されない。</t>
+    <rPh sb="1" eb="2">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T_GAME_DATA_SORTING_INDEX[n][基本データ情報::データ件数]</t>
-    <rPh sb="29" eb="31">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※並べ替えインデックス種数分続く…</t>
-    <rPh sb="1" eb="2">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u8[]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本データインデックス</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(4 + ?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05：並べ替えインデックス部</t>
-    <rPh sb="3" eb="4">
-      <t>ナラ</t>
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※最後のパディングは含まないサイズ。</t>
+    <rPh sb="1" eb="3">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※データ構造に、「計算式」のデータ項目が一つも含まれない場合は、この「計算式データ部」自体が存在しない。</t>
+    <rPh sb="4" eb="6">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T_EXPR_REF[n]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05：計算式データ部：T_GDBIN_EXPR</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,18 +412,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -198,8 +463,55 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +520,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -222,6 +540,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -513,7 +885,9 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -522,57 +896,39 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,6 +945,50 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -599,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,115 +1018,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1505,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1026,100 +1519,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="44">
         <v>4</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="30"/>
-      <c r="B3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="50">
         <v>4</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="51" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
+        <v>4</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
+      <c r="B8" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="71">
+        <v>4</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="B9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="22" t="s">
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="31"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="B12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="35"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
